--- a/src/attributions/attributions_ig_traj_164.xlsx
+++ b/src/attributions/attributions_ig_traj_164.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.2202619860564859</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.004347258816873903</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0007143499169683418</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01198260383272262</v>
+        <v>-0.007970042085965322</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0.02986044269909228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1031,109 +1031,109 @@
         <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.1176814932238984</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.008167445564527625</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.003537405267134139</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001191676162890498</v>
+        <v>-0.005098075527219302</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>-0.01165550324571498</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0.5661046281649315</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004135157886850463</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1292830921522621</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08980722570502979</v>
+        <v>-0.3434885073008222</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.02665373115410037</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.4540645036345482</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0744470755724361</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1354220155335145</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1803963026494089</v>
+        <v>0.4381608147112677</v>
       </c>
       <c r="AG2" t="n">
         <v>-0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>0.1068920178926481</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.3143180489424944</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01753582999946263</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.02526264914243197</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0736899607743146</v>
+        <v>-0.2124438484244829</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>0.06621932748682352</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
@@ -1142,103 +1142,103 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-1.765560557597672</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.07414877008857554</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.3871684542592435</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.2205302352168649</v>
+        <v>-0.5635412421743794</v>
       </c>
       <c r="AY2" t="n">
         <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>0.437377944943267</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
         <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>-0.05142670522064453</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.02243229619016904</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1891481463753175</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.03454837510708343</v>
+        <v>0.5146562938343624</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0.09904722767064914</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.5047093317713048</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0799881897795014</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.1655974598155862</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0351250527298091</v>
+        <v>-0.2425910091672164</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>-0.2744537350828858</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0.6407026583241402</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01380436626447262</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.1917233523065112</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.02510993487380671</v>
+        <v>-0.2691642406146433</v>
       </c>
       <c r="BZ2" t="n">
         <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>0.07649589859572227</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
@@ -1250,52 +1250,52 @@
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.4482096741534694</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01129703779985561</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0344763921864119</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.05418306214513213</v>
+        <v>0.1537988472216331</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0.1703758307351985</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.0004798512539753726</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.003982562558390751</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.07211880670663731</v>
+        <v>-0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.003471964012222104</v>
+        <v>-0.04316181239080743</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>0.03146925276592232</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>-0</v>
@@ -1304,49 +1304,49 @@
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.5113579817766105</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0003263671149877235</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0503697680301072</v>
+        <v>-0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.1094265826303284</v>
+        <v>0.141153903176062</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>-0.2075036521066159</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
         <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.7304956612780094</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.1219441696311692</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.1152769443415397</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.1256769451625253</v>
+        <v>-0.2358639132052893</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0.06275433148880022</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
@@ -1358,79 +1358,79 @@
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.05970138387918047</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0007550210617156552</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.2729206428952975</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.001985093106597953</v>
+        <v>0.4606287955380887</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0.1230965699706302</v>
       </c>
       <c r="DU2" t="n">
         <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.5652743982364528</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0266574247886515</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.01008741562647422</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.004727535144894913</v>
+        <v>0.1074885264373941</v>
       </c>
       <c r="EB2" t="n">
         <v>-0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>0.06487984865218877</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0</v>
+        <v>0.1818197487952344</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02035562695548382</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.09389444074426419</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.049688857411476</v>
+        <v>-0.08581722123987003</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0.1414696740367558</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
         <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>0.3885191243062626</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004460568292224341</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.1296282987758652</v>
+        <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0253162629625904</v>
+        <v>0.3110806590303044</v>
       </c>
       <c r="ET2" t="n">
         <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>0.1156924335851802</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -1466,79 +1466,79 @@
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0</v>
+        <v>0.5148941001552675</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.004749899789386074</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.07660733004494602</v>
+        <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.06659719426254566</v>
+        <v>0.196361015220863</v>
       </c>
       <c r="FC2" t="n">
         <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0.2496762471747001</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.1066839543968125</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01332502252411434</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.05509718883140149</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.1580972695495317</v>
+        <v>0.3356386717229202</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>-0.1658066356058649</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>0.0733764277213929</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.003579403459138074</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.118851306502249</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-7.027360802764418e-05</v>
+        <v>-0.01292593608167205</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0.002030941313715985</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
@@ -1547,25 +1547,25 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>0.1892215365391979</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0006894512317714707</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.01720009720810866</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0</v>
+        <v>0.3589525534842006</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.04529671684662277</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003212130128358517</v>
+        <v>-2.189334333806803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003192255562936343</v>
+        <v>0.002909500292048659</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1594,25 +1594,25 @@
         <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.423816606527318e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.07685015727663362</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009215586089224096</v>
+        <v>-0.001996017333761818</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0001740412126309392</v>
+        <v>0.002843512712211554</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0005053793905804972</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1630,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.2541429476168228</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0280938677396866</v>
+        <v>-0.0209266993081187</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03062857652590496</v>
+        <v>0.2173249844093726</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.05060718109506185</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1657,70 +1657,70 @@
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.0555155386652099</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.002900616753780902</v>
+        <v>0.02381044095871735</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.03544666423860084</v>
+        <v>-0.08058968628221333</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0455019238808082</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.1834003414350787</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.01734455262574553</v>
+        <v>-0.1231920066208565</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.05425947514918618</v>
+        <v>-0.1247666419433896</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0008692890320555203</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.7267667481980575</v>
       </c>
       <c r="AV3" t="n">
         <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.0466117723189859</v>
+        <v>-0.6035045388602451</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.02191368977428986</v>
+        <v>6.694890792260705e-05</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
@@ -1729,88 +1729,88 @@
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.1879849201054662</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0.2054117182364195</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.009190608049522399</v>
+        <v>0.004707745787321215</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.02840859348770183</v>
+        <v>-0.3072288963513261</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI3" t="n">
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.0139927022548601</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.2754136298261577</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.04839072541596468</v>
+        <v>0.1313121574486175</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.02466717847707325</v>
+        <v>-0.03462385189248364</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.1242476767806698</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.2444464623883773</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.04549926309922863</v>
+        <v>-0.09355211704814118</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.02488869516657109</v>
+        <v>0.05011353778666369</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.01974317260340795</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
         <v>0</v>
@@ -1819,151 +1819,151 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>-0.1470163409222733</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0204731911118709</v>
+        <v>0.189981605306484</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.007507157793483581</v>
+        <v>-0.09006290195160226</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.05222258273942113</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.004390179625003828</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.003197122812667661</v>
+        <v>0.02955327508601854</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.007253686447289032</v>
+        <v>0.01543478960091979</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.009807693670196488</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0.1830094809166972</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.01919203400923728</v>
+        <v>0.2356777779147895</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.02064088678497063</v>
+        <v>-0.05339714395471894</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.04807460673605148</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.08619965675304218</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.02528523389605337</v>
+        <v>0.4090008334224796</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.1054169420646517</v>
+        <v>-0.5151461770907837</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.07777773382958723</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.001635520789954079</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.09254837502642681</v>
+        <v>-0.1343441242687579</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.03403899336795484</v>
+        <v>-0.02070401027732268</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0.06344384020973139</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.02163896133974823</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.02271935447552211</v>
+        <v>0.06820148340644107</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02000766707198012</v>
+        <v>-0.01467609273042912</v>
       </c>
       <c r="EB3" t="n">
         <v>-0</v>
@@ -1972,216 +1972,216 @@
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.07987554979901171</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>-0.2599982177445154</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.04163645749348532</v>
+        <v>0.1748300199682942</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.0417684866764354</v>
+        <v>0.2439739756843674</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.04093835853746652</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>0.1668806355240657</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.09816437835226303</v>
+        <v>0.2753371914577034</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.04355062002878735</v>
+        <v>0.2447463355892114</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0261563067839786</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>-0.1796378203512105</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.03521294700818747</v>
+        <v>0.2117222581448169</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.004406929377894335</v>
+        <v>-0.1000329258110239</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.04229448519746639</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.03434252660504175</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.02095710644372061</v>
+        <v>-0.147374326523323</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.01562558765462817</v>
+        <v>0.020997188808694</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0.033773087699505</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1146813011994886</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.04733722389267307</v>
+        <v>0.3723261246884337</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.01579812564502047</v>
+        <v>-0.2395319966977813</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02491291569982052</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>0.1484836207743389</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0.02234980438187803</v>
+        <v>0.1132903038763636</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.01685747274975078</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.07101085683763872</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002593113506400612</v>
+        <v>-0.001253633362635965</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.003255629133437608</v>
+        <v>-0.005620474468224277</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00354945399759484</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0.02122426108386885</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0005120753296528408</v>
+        <v>0.007995454339984632</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005051585345967843</v>
+        <v>-0.002785680265285074</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2190,61 +2190,61 @@
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001678862369485181</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.2386055074766972</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.005936098506497986</v>
+        <v>-0.02299973432208248</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02246653648275366</v>
+        <v>0.2812521183025262</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.01987436756013661</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0.01644543508563116</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.003173923071862449</v>
+        <v>0.1610236130383465</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.02385963985977595</v>
+        <v>-0.02721222420507901</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01396287725158058</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
         <v>-0</v>
@@ -2253,25 +2253,25 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0.0701054513979802</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02094611039406215</v>
+        <v>0.0762200232127189</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.004674216653880952</v>
+        <v>-0.04374987255901108</v>
       </c>
       <c r="AP4" t="n">
         <v>-0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0139051295678791</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -2280,43 +2280,43 @@
         <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.5331549688474542</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.01202170140511332</v>
+        <v>0.4564013635781581</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01780862496281448</v>
+        <v>0.1730942920133991</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.06495209644437359</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>-0.09416318417834893</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.03453378988254463</v>
+        <v>-0.1683277964770883</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0006256691092630455</v>
+        <v>-0.1363206036177197</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
@@ -2325,115 +2325,115 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0107396955209193</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>-0.05272842639896434</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.02998722076154162</v>
+        <v>0.1946053027986031</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.02095608156773277</v>
+        <v>0.1572013890684845</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.05717954021581533</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.1930205051520478</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.02185999841293685</v>
+        <v>0.1157773496006213</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01049720313364442</v>
+        <v>0.05327591110527239</v>
       </c>
       <c r="BZ4" t="n">
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.001231476624123734</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>-0.1565713528834797</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.007169809790873239</v>
+        <v>-0.08049186906389733</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01998244955222413</v>
+        <v>-0.09159536299261789</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.01423669042277318</v>
+        <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.001076532971113493</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0007441274403180559</v>
+        <v>0.09448509264424665</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.0001576926427205377</v>
+        <v>-0.01175396557526696</v>
       </c>
       <c r="CR4" t="n">
         <v>-0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.009662064182518998</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>-0</v>
@@ -2442,16 +2442,16 @@
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.135165313450598</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.007239618747716146</v>
+        <v>-0.006628799958425854</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02979675175232119</v>
+        <v>-0.06974710533869402</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,34 +2460,34 @@
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.01459394231364747</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>0.0312288927271737</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.02121868374053242</v>
+        <v>0.2875189940743724</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0515842769149542</v>
+        <v>0.02425066348551476</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.02679219532091804</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.2242242809076193</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.03551040737397979</v>
+        <v>-0.1456322110851262</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0132592953914538</v>
+        <v>-0.04665669378561264</v>
       </c>
       <c r="DS4" t="n">
         <v>0</v>
@@ -2514,219 +2514,219 @@
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.05097803718940225</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.1554982661429147</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.01153236995300462</v>
+        <v>-0.06976886157423773</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01468737991991077</v>
+        <v>-0.08108018528950742</v>
       </c>
       <c r="EB4" t="n">
         <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.03215534372402334</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.1863858400772347</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.01753829528570894</v>
+        <v>-0.0007517984437766282</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.04068630931013983</v>
+        <v>0.1118777274107813</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.02226607049655266</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>-0.1227842407833548</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.06401414310168012</v>
+        <v>-0.1742294051874244</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.04209286514033526</v>
+        <v>-0.1011784965688146</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.02822413699035093</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0</v>
+        <v>-0.1325421488672788</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0087447392257279</v>
+        <v>-0.1185620978895588</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01851370931193255</v>
+        <v>-0.0340921817669023</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.02102746826176179</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.05923877496027807</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.0111379930647202</v>
+        <v>-0.1687032932066615</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.09279529091297176</v>
+        <v>-0.1265532748978347</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0.007288157121874939</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>0.200206164229006</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.004128898020919159</v>
+        <v>0.09924363313057734</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.001073153429664845</v>
+        <v>-0.1263683445836893</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.03782573303533539</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>0.1535579037906337</v>
       </c>
       <c r="GA4" t="n">
         <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0.04216846895892813</v>
+        <v>-0.1383326700210164</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.03071286810803531</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.003557130428054071</v>
+        <v>-0.001114814967286255</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004808630154998325</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004465973685651632</v>
+        <v>-0.002053610911226141</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.02484565056149084</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
@@ -2735,25 +2735,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.000207234264565962</v>
+        <v>-0.01149102272578283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01959675749096778</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001596928536123223</v>
+        <v>-0.001793865403304597</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0.001276388201461193</v>
       </c>
       <c r="P5" t="n">
         <v>-0</v>
@@ -2762,31 +2762,31 @@
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04115055441178006</v>
+        <v>-0.0304883315997524</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06178226061447625</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06476985340518349</v>
+        <v>-0.0048883747233876</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>-0.01528481102299523</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0414234631018271</v>
+        <v>-0.02184133601809873</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.009531502689776497</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.02503550103048977</v>
+        <v>0.001190628743438161</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.003084499251511803</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -2819,49 +2819,49 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.01741714811408144</v>
+        <v>0.01155398447840776</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01613507358841062</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02559518686653612</v>
+        <v>0.03629091866698887</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01352459250189088</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
         <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.06427469270788283</v>
+        <v>-0.0008163270049915174</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.07268676459859279</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.07782453737767209</v>
+        <v>-0.07481989031307516</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.04507799371591954</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.03026800982717419</v>
+        <v>0.03317289430909103</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02150921019723932</v>
+        <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01200135693481451</v>
+        <v>0.02982824184096731</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>-0.05595408241610397</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -2903,25 +2903,25 @@
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.05092364940014839</v>
+        <v>-0.0155764662300784</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.06896732022521188</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.01861020886139497</v>
+        <v>0.02434361806552777</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0.004377284404403319</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
@@ -2930,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0.02596788160167095</v>
+        <v>-0.005514738442554705</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0.04620441862974731</v>
+        <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.02358221926892197</v>
+        <v>-0.009250827261375962</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.01967511215948463</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
@@ -2951,52 +2951,52 @@
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.006097854467496422</v>
+        <v>-0.002836007942525527</v>
       </c>
       <c r="CF5" t="n">
         <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0240596610632849</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.04342844794209066</v>
+        <v>-0.002798826252721928</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.0353493310631959</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0006949665487899694</v>
+        <v>-0.0004461791616326693</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.001176083991960074</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.003047994806582812</v>
+        <v>0.001378459601853726</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.0009339087031929733</v>
       </c>
       <c r="CS5" t="n">
         <v>-0</v>
@@ -3011,19 +3011,19 @@
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0.006081768514288552</v>
+        <v>0.005570733471876808</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.02802717493250729</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.03433240062932309</v>
+        <v>0.01076181222447353</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.04004337190382027</v>
       </c>
       <c r="DB5" t="n">
         <v>-0</v>
@@ -3032,52 +3032,52 @@
         <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
         <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0.00627495265806168</v>
+        <v>0.02430236942930711</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0005160780498877275</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.1198738719250622</v>
+        <v>0.068567430748206</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.00513489301311818</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.110808142400973</v>
+        <v>0.007703495502932627</v>
       </c>
       <c r="DP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.04007909533220246</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.1054453655658941</v>
+        <v>-0.007627870733966389</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.001528116040844436</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
@@ -3086,79 +3086,79 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.02919201970934134</v>
+        <v>0.01658835597738522</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01419222088648824</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.01808501874788517</v>
+        <v>0.01288621078035652</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0.01989832434543192</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.009203756025020479</v>
+        <v>-0.03012407526371283</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.03134236893170155</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.01831864040756564</v>
+        <v>0.003440531114368553</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0.05766835569032739</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.06989220294848159</v>
+        <v>0.01365982396549756</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.04687003052830368</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04102457620054602</v>
+        <v>0.008178722772988594</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>-0.02089456444601808</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
@@ -3170,49 +3170,49 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0.00570615293702578</v>
+        <v>0.005583816304102332</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.04437496409349222</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.03770558991480344</v>
+        <v>0.009528188513079469</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.03184932758077121</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01555995808647182</v>
+        <v>-0.001168636430381582</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0699705163181665</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.07487381496729312</v>
+        <v>0.02472661424640738</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>0.04615965636057944</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
@@ -3224,108 +3224,108 @@
         <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0.04138073596347101</v>
+        <v>-0.068771207657429</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.04854928071631974</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03198287223507354</v>
+        <v>-0.02642923326914767</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.05616023722894015</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0.002730658751424877</v>
+        <v>0.0007963470109031401</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.0002641478506750502</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.007833023554921308</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2666534451903539</v>
+        <v>-3.189328299390215e-11</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.148768256910286e-11</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001721490314473026</v>
+        <v>-0.0003994311503359761</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.5711708329164694</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2752716223740145</v>
+        <v>0.02576015525109986</v>
       </c>
       <c r="L6" t="n">
         <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.01882704535934425</v>
+        <v>-0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00425303200927993</v>
+        <v>0.01334729205903295</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.4663564713583607</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3337,19 +3337,19 @@
         <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.007640607076836346</v>
+        <v>0.0597866253203926</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02274344708135228</v>
+        <v>-0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.004716794466716685</v>
+        <v>0.02224101574206757</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.08594303494577579</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -3361,55 +3361,55 @@
         <v>-0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.06254474642881859</v>
+        <v>0.0008110516579096502</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.01640383957192379</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01183798610740787</v>
+        <v>0.02989586748301998</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.01679487306356446</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>-0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0542209393483658</v>
+        <v>-0.01997647447839623</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.00917140011458629</v>
+        <v>-0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.005987417124366348</v>
+        <v>-0.04606333075639794</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.06344819127035002</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -3418,49 +3418,49 @@
         <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1279278565709711</v>
+        <v>-0.04141719696205989</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.05405508768450592</v>
+        <v>-0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01628655768878711</v>
+        <v>0.02924626823716479</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>0.3501303564324146</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
         <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0855234387861723</v>
+        <v>-0.06577810135266411</v>
       </c>
       <c r="BE6" t="n">
         <v>-0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.02166968324405853</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.009597151525104474</v>
+        <v>0.02125946163943363</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.09531149812368278</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.01048438190617248</v>
+        <v>-0.06072383112558737</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.06946277518742287</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.04276263582870654</v>
+        <v>-0.02465354403437233</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.05204700235693255</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
         <v>-0</v>
@@ -3499,73 +3499,73 @@
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.07164318094159421</v>
+        <v>-0.008720506198970466</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.02380843236847682</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01067306087952101</v>
+        <v>0.0250220884341796</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.1678444188414201</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0.05562223353319308</v>
+        <v>0.02816196475664937</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.02052746209991788</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0004352885715985274</v>
+        <v>-0.01242329897700805</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>-0.1062322857819183</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0.01765444259079837</v>
+        <v>-0.0001755736340885173</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.0002292455862060163</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.0001964142895813526</v>
+        <v>-0.004199913753770807</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.007075423999197136</v>
       </c>
       <c r="CS6" t="n">
         <v>-0</v>
@@ -3580,19 +3580,19 @@
         <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0.04449540528424996</v>
+        <v>0.009738540897013509</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.01430201485911263</v>
+        <v>-0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.007300338041517305</v>
+        <v>-0.01332859101745465</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>-0.1045814478458443</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3601,25 +3601,25 @@
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0289064153706694</v>
+        <v>-0.03416632665225471</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01701787700624268</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.02047253498759048</v>
+        <v>-0.04601613728980962</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0.07979871126793134</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
@@ -3631,49 +3631,49 @@
         <v>-0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.03911092332422993</v>
+        <v>-0.02462518782717598</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.004800427182576285</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.02078679362660372</v>
+        <v>0.0002703486751794824</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.007675263676630979</v>
       </c>
       <c r="DT6" t="n">
         <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0.02132539529819232</v>
+        <v>-0.001020932928892605</v>
       </c>
       <c r="DY6" t="n">
         <v>-0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-8.728895683330899e-05</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.0242109882569292</v>
+        <v>0.0003877971101552543</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>-0.07121742161462674</v>
       </c>
       <c r="EC6" t="n">
         <v>0</v>
@@ -3688,46 +3688,46 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>-0.09382853092411184</v>
+        <v>0.03952555323250437</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.0005841952897757616</v>
+        <v>-0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.0355294142494084</v>
+        <v>-0.02553857233034238</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>-0.09382248111211788</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0.03700474278955222</v>
+        <v>0.01294148738940155</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.02806955329876499</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.00893136445675515</v>
+        <v>0.01506340988566992</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>-0.007154795158704857</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>-0.04234767625493758</v>
+        <v>0.002346961318036897</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02600308663742303</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.002156630223210759</v>
+        <v>-0.03221958287677056</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>-0.08602878593652741</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
@@ -3769,19 +3769,19 @@
         <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.04827230338371555</v>
+        <v>0.04869901740010604</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02088490079629416</v>
+        <v>0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.003418218805475028</v>
+        <v>-0.05953878044012036</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>-0.0661940780291258</v>
       </c>
       <c r="FM6" t="n">
         <v>-0</v>
@@ -3796,46 +3796,46 @@
         <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.009422243986263422</v>
+        <v>0.06021428869088592</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.02729581237120083</v>
+        <v>0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.02458108947440254</v>
+        <v>-0.1493948356351913</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>-0.07226576324093015</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
         <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.007985685822106533</v>
+        <v>-0.03147230964936151</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>-0.01060284887874973</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.005126289059184701</v>
       </c>
       <c r="GE6" t="n">
         <v>0</v>
